--- a/output/missing-values-country.xlsx
+++ b/output/missing-values-country.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,6 +104,12 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0100</t>
   </si>
   <si>
@@ -119,9 +128,21 @@
     <t xml:space="preserve">TSH0201</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0318</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0426</t>
   </si>
   <si>
@@ -134,21 +155,42 @@
     <t xml:space="preserve">TSH0458</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0765</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0850</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0902</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0919</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0940</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1008</t>
   </si>
   <si>
@@ -176,6 +218,9 @@
     <t xml:space="preserve">TSH1337</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1348</t>
   </si>
   <si>
@@ -188,6 +233,12 @@
     <t xml:space="preserve">TSH1612</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1757</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1782</t>
   </si>
   <si>
@@ -206,12 +257,6 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSH1848</t>
   </si>
   <si>
@@ -219,6 +264,9 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1935</t>
   </si>
 </sst>
 </file>
@@ -716,7 +764,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -740,7 +788,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -752,7 +800,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -1007,6 +1055,102 @@
         <v>68</v>
       </c>
       <c r="B76"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+      <c r="B81"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
